--- a/BalanceSheet/CTSH_bal.xlsx
+++ b/BalanceSheet/CTSH_bal.xlsx
@@ -1802,19 +1802,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>26000000.0</v>
+        <v>389000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-20000000.0</v>
+        <v>420000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>59000000.0</v>
+        <v>359000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>44000000.0</v>
+        <v>289000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-13000000.0</v>
+        <v>239000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>246000000.0</v>
@@ -2980,19 +2980,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-106000000.0</v>
+        <v>-239000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>383000000.0</v>
+        <v>-253000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-74000000.0</v>
+        <v>-641000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-19000000.0</v>
+        <v>-563000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-103000000.0</v>
+        <v>-550000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>57000000.0</v>
